--- a/Data/Shenzhen POS+INV - MAR 2021.xlsx
+++ b/Data/Shenzhen POS+INV - MAR 2021.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrusp\Documents\SiTime Sales Data\Distrib_POS\Shenzhen Crystal\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C7A73-C1D2-4E9F-9BF9-C92CB55F8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049D5D5-AB90-4DB3-8122-2BDA8D649768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1060" yWindow="-18890" windowWidth="17280" windowHeight="15640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="3" r:id="rId1"/>
     <sheet name="Inventory" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="A" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="A" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="MINER">A!$B$4:$C$10</definedName>
+    <definedName name="MINER">A!$A$2:$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Distributor</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>2021/3/2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -1005,31 +1011,31 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.62890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3671875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.15625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5234375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.15625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.62890625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="34" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.89453125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="7.7890625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.15625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.08984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1015625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7890625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="13"/>
-    <col min="19" max="16384" width="8.90625" style="1"/>
+    <col min="18" max="18" width="8.89453125" style="13"/>
+    <col min="19" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="6" customFormat="1" ht="50.4" customHeight="1">
@@ -1676,24 +1682,24 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.1796875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.08984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.5234375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.47265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.62890625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.15625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.15625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7890625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.7890625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.15625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.3671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.1015625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.15625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.1015625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.15625" style="3" customWidth="1"/>
     <col min="15" max="15" width="17" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="3"/>
+    <col min="16" max="16384" width="8.89453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="47.4" customHeight="1">
@@ -1740,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A2" s="7">
         <v>44288</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A3" s="7">
         <v>44288</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A4" s="7">
         <v>44288</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A5" s="7">
         <v>44288</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A6" s="7">
         <v>44288</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1994,7 +2000,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2010,7 +2016,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2026,7 +2032,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2042,7 +2048,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2058,7 +2064,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2074,7 +2080,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2090,7 +2096,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2106,7 +2112,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2122,7 +2128,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:15" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="16" spans="1:15" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2138,7 +2144,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="17" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2154,7 +2160,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="18" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2170,7 +2176,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2186,7 +2192,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2202,7 +2208,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2218,7 +2224,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="22" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2234,7 +2240,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" s="11" customFormat="1" ht="25.25" customHeight="1">
+    <row r="23" spans="1:14" s="11" customFormat="1" ht="25.3" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2263,7 +2269,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2272,66 +2278,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9874C1-EC0E-466D-A590-0C482C25899D}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.15625" customWidth="1"/>
+    <col min="2" max="2" width="10.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1"/>
-    <row r="4" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="8" t="s">
+    <row r="1" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24">
+      <c r="B2" s="24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="8" t="s">
+    <row r="3" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="24">
+      <c r="B3" s="24">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="8" t="s">
+    <row r="4" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="24">
+      <c r="B4" s="24">
         <v>0.22</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="8" t="s">
+    <row r="5" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24">
+      <c r="B5" s="24">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="8" t="s">
+    <row r="6" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24">
+      <c r="B6" s="24">
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1"/>
-    <row r="10" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1"/>
-    <row r="11" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1"/>
-    <row r="12" spans="2:3" s="23" customFormat="1" ht="15" customHeight="1"/>
+    <row r="7" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1"/>
+    <row r="8" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1"/>
+    <row r="9" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1"/>
+    <row r="10" spans="1:2" s="23" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="C71F" sqref="C4:C8" name="INV1_8"/>
+    <protectedRange password="C71F" sqref="B2:B6" name="INV1_8"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,7 +2359,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,6 +2367,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100582A5FBFA93DF9489A12435AF256ADB9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfa6fa0815ed57b47ac13d2e737b4bd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84533548-6a3c-44ad-8013-e8e6b4295ee4" xmlns:ns3="9c0d39b0-f853-46d0-be1c-b75ead6e7377" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ea696491f0239e03270050306e9e5ed" ns2:_="" ns3:_="">
     <xsd:import namespace="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
@@ -2576,22 +2604,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD37A77D-E454-4255-AC66-F619A11ACB6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B1C6D6A-01CD-470C-B8F6-9164087514A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644B2CFF-8003-4DF5-9380-CF0B0151C31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2608,21 +2638,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B1C6D6A-01CD-470C-B8F6-9164087514A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD37A77D-E454-4255-AC66-F619A11ACB6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>